--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1362.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1362.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.190300891954633</v>
+        <v>0.8623912930488586</v>
       </c>
       <c r="B1">
-        <v>2.597884156510637</v>
+        <v>2.860342025756836</v>
       </c>
       <c r="C1">
-        <v>3.858868589765467</v>
+        <v>8.763140678405762</v>
       </c>
       <c r="D1">
-        <v>2.73485374002302</v>
+        <v>2.025200843811035</v>
       </c>
       <c r="E1">
-        <v>1.143117678746069</v>
+        <v>1.145461320877075</v>
       </c>
     </row>
   </sheetData>
